--- a/11_8_data.xlsx
+++ b/11_8_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolan/MACALESTER/Stat 456/stat456_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FE1330-2D1F-6147-83C9-93AA63116460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34858801-489E-6B4A-9386-991B1760EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="standard_erros" sheetId="2" r:id="rId2"/>
-    <sheet name="relative_SEs_perc" sheetId="5" r:id="rId3"/>
-    <sheet name="sample_sizes" sheetId="3" r:id="rId4"/>
-    <sheet name="confidence_intervals" sheetId="4" r:id="rId5"/>
+    <sheet name="salary" sheetId="1" r:id="rId1"/>
+    <sheet name="efc" sheetId="6" r:id="rId2"/>
+    <sheet name="loans" sheetId="7" r:id="rId3"/>
+    <sheet name="standard_erros" sheetId="2" r:id="rId4"/>
+    <sheet name="relative_SEs_perc" sheetId="5" r:id="rId5"/>
+    <sheet name="sample_sizes" sheetId="3" r:id="rId6"/>
+    <sheet name="confidence_intervals" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="188" uniqueCount="88">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="238" uniqueCount="90">
   <si>
     <t>Primary job: Annualized salary, 2012</t>
   </si>
@@ -293,13 +295,19 @@
   </si>
   <si>
     <t>6,319.70 - 9,301.63</t>
+  </si>
+  <si>
+    <t>CI_low</t>
+  </si>
+  <si>
+    <t>CI_high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +438,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -776,9 +791,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1133,11 +1150,997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>54548.154999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>47906.21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>61190.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59876.884700000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>56164.06</v>
+      </c>
+      <c r="D3" s="2">
+        <v>63589.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33951.4156</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31321.17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36581.660000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37274.332499999997</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30320.080000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44228.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37375.946499999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>31247.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43504.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37224.591399999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26891.56</v>
+      </c>
+      <c r="D7" s="2">
+        <v>47557.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38177.222600000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>35105.120000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41249.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29125.177100000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26992.080000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31258.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>29564.381000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27411.71</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31717.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>35950.027999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>31368.35</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40531.699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31500.429100000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27587.65</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35413.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>54191.634400000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42772.87</v>
+      </c>
+      <c r="D13" s="2">
+        <v>65610.399999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>33684.4928</v>
+      </c>
+      <c r="C14" s="2">
+        <v>28833.919999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38535.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>47037.532899999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44175.74</v>
+      </c>
+      <c r="D15" s="2">
+        <v>49899.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43241.176500000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40875.49</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45606.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34126.440600000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31653.39</v>
+      </c>
+      <c r="D17" s="2">
+        <v>36599.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35237.325400000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>28185.4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42289.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>35605.780500000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32912.82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>38298.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30580.347600000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26771.56</v>
+      </c>
+      <c r="D20" s="2">
+        <v>34389.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35412.054499999998</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30466.09</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40358.019999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29838.825400000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19630.759999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40046.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689AFE5C-B769-D84A-82FF-1CD0EA643A8D}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10294.3819</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7328.74</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13260.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10134.558800000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8349.6299999999992</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11919.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8734.1653999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7280.67</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10187.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8769.2036000000007</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5129.63</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12408.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11327.7909</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5955.11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16700.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7836.9880000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5777.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9896.7800000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10779.7112</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9200.51</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12358.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9218.0581999999995</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7896.25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10539.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9759.1617999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8125.51</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11392.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10074.873299999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7410.84</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12738.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9715.3780999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6905.61</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12525.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10870.540499999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4858.49</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16882.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8038.4025000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6214.62</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9862.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8572.9475999999995</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7477.58</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9668.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10306.848900000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9247.23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11366.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8616.9848000000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7513.53</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9720.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9552.1815999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5552.02</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13552.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12770.8621</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10438.700000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15102.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6538.4440999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4948.88</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8128.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9521.7831000000006</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6899.44</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12144.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5727.6440000000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2383.89</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9071.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EC4F5-75FC-1141-AE99-AEC05C961748}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6922.9151000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6041.48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7804.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6301.8855000000003</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5772.54</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6831.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7071.9988999999996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6554.75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7589.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7821.2959000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6003.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9638.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6194.7640000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5324.69</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7064.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6365.8572999999997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5785.81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6945.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6725.9630999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6344.74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7107.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6590.3505999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6167.37</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7013.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6777.1526000000003</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6362.74</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7191.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6223.7012999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5445.03</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7002.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6188.3897999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5373.41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7003.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6503.7983999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4547.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8459.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6862.9817000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6131.87</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7594.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7573.2606999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6971.26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8175.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6333.7572</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6021.59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6645.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6407.0389999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6018.14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6795.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7563.0218000000004</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5873.97</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9252.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6503.4480000000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6063.93</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6942.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6960.1108999999997</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6251.25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7668.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6727.6035000000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5862.68</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7592.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7810.6629999999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6319.7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9301.6299999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,335 +2170,6 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>54548.154999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10294.3819</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6922.9151000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>59876.884700000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10134.558800000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6301.8855000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>33951.4156</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8734.1653999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7071.9988999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>37274.332499999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8769.2036000000007</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7821.2959000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>37375.946499999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11327.7909</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6194.7640000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>37224.591399999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7836.9880000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6365.8572999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>38177.222600000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10779.7112</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6725.9630999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29125.177100000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9218.0581999999995</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6590.3505999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29564.381000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9759.1617999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6777.1526000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>35950.027999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10074.873299999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6223.7012999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>31500.429100000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9715.3780999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6188.3897999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>54191.634400000003</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10870.540499999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6503.7983999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>33684.4928</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8038.4025000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6862.9817000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>47037.532899999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8572.9475999999995</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7573.2606999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43241.176500000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10306.848900000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6333.7572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>34126.440600000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8616.9848000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6407.0389999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>35237.325400000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9552.1815999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7563.0218000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>35605.780500000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12770.8621</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6503.4480000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>30580.347600000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6538.4440999999997</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6960.1108999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1">
-        <v>35412.054499999998</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9521.7831000000006</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6727.6035000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>29838.825400000002</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5727.6440000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7810.6629999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
         <v>3388.7458900000001</v>
       </c>
       <c r="C2" s="1">
@@ -1790,8 +2464,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,8 +2793,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,12 +3122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
